--- a/db/excel/social.news.v2.xlsx
+++ b/db/excel/social.news.v2.xlsx
@@ -4,13 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="20" windowWidth="20840" windowHeight="14820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14820" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="7" r:id="rId1"/>
+    <sheet name="news-sample" sheetId="8" r:id="rId2"/>
+    <sheet name="news_tags-sample" sheetId="10" r:id="rId3"/>
+    <sheet name="news_details-sample" sheetId="9" r:id="rId4"/>
+    <sheet name="news_comments-sample" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$G$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$G$36</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="126">
   <si>
     <t>id</t>
   </si>
@@ -65,9 +69,6 @@
     <t>func</t>
   </si>
   <si>
-    <t>Chức năng sử dụng</t>
-  </si>
-  <si>
     <t>file_name</t>
   </si>
   <si>
@@ -92,9 +93,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>trạng thái hiệu lực của file</t>
-  </si>
-  <si>
     <t>user upload file này</t>
   </si>
   <si>
@@ -104,9 +102,6 @@
     <t>kiểu của file này để truy vấn</t>
   </si>
   <si>
-    <t>tên đầy đủ của file ghi từ đường dẫn gốc</t>
-  </si>
-  <si>
     <t>tên của file không có đường dẫn</t>
   </si>
   <si>
@@ -134,15 +129,9 @@
     <t>group_id</t>
   </si>
   <si>
-    <t>Hệ thống sử dụng:group_id,func,dir/file_name,file_type,file_date,file_size/ip,user,time,status</t>
-  </si>
-  <si>
     <t>news</t>
   </si>
   <si>
-    <t>share_status</t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
@@ -164,9 +153,6 @@
     <t>results</t>
   </si>
   <si>
-    <t>Chuỗi json kết quả likes, comments, shares</t>
-  </si>
-  <si>
     <t>Chuỗi json cho phép hiển thị các lệnh (likes, comments, shares)</t>
   </si>
   <si>
@@ -176,37 +162,22 @@
     <t>Bản tin liên kết với bản tin cũ (share tin tức)</t>
   </si>
   <si>
-    <t>default '{"likes":{"like":[],"love":[],"unlike":[],"sad":[],"angery":[]},"comments":[],"shares":[]}'</t>
-  </si>
-  <si>
     <t>default '{"like":"Thích","comment":"Góp ý","share":"Chia sẻ"}'</t>
   </si>
   <si>
     <t>actions</t>
   </si>
   <si>
-    <t>new_details</t>
-  </si>
-  <si>
     <t>Nội dung chi tiết của tin tức này\n  Chuỗi json liên kết các file, các nội dung biên dịch của trang web nếu có url</t>
   </si>
   <si>
     <t>tags</t>
   </si>
   <si>
-    <t>Tag những người liên quan bản tin này ["903500888","702418821"] khi lọc thì người liên quan sẽ được hiển thị lên</t>
-  </si>
-  <si>
-    <t>trạng thái hiệu lực của tin tức này</t>
-  </si>
-  <si>
     <t>thời gian tạo tin tức này</t>
   </si>
   <si>
     <t>Thiết bị sử dụng để upload tin này lên</t>
-  </si>
-  <si>
-    <t>Chữ ký của tin tức này</t>
   </si>
   <si>
     <t>Mã public key từ thiết bị của user</t>
@@ -273,9 +244,6 @@
     <t>default 1, FOREIGN KEY (parent_id) REFERENCES news(id)</t>
   </si>
   <si>
-    <t>default 1, FOREIGN KEY (group_id) REFERENCES news(group_id) ON DELETE CASCADE ON UPDATE NO ACTION</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -324,9 +292,6 @@
     <t>default 0, UNIQUE(username,friend_username)</t>
   </si>
   <si>
-    <t>kiểu tin tức ??</t>
-  </si>
-  <si>
     <t>user tạo tin tức này được đánh index để tìm cho nhanh tin tức của user in ('username1',...). Nếu user được tag vào bản tin này?</t>
   </si>
   <si>
@@ -349,6 +314,153 @@
   </si>
   <si>
     <t>trạng thái theo dõi người này</t>
+  </si>
+  <si>
+    <t>news_details</t>
+  </si>
+  <si>
+    <t>903500888-123456789</t>
+  </si>
+  <si>
+    <t>Các link ghi nhớ nội bộ</t>
+  </si>
+  <si>
+    <t>Trang chủ công ty bên trong mạng nội bộ http://10.151.59.12 . Trang chủ công ty 3 bên ngoài internet https://c3.mobifone.vn</t>
+  </si>
+  <si>
+    <t>Nội dung được biên dịch tự động json: [{}]</t>
+  </si>
+  <si>
+    <t>news_tags</t>
+  </si>
+  <si>
+    <t>news_id</t>
+  </si>
+  <si>
+    <t>tag_time</t>
+  </si>
+  <si>
+    <t>Mã tin tức foreign_key với news</t>
+  </si>
+  <si>
+    <t>Mã liên kết bảng news để biết chi tiết này thuộc bản tin nào</t>
+  </si>
+  <si>
+    <t>default 1, FOREIGN KEY (news_id) REFERENCES news(id) ON DELETE CASCADE ON UPDATE NO ACTION</t>
+  </si>
+  <si>
+    <t>tên đầy đủ của file ghi từ đường dẫn gốc, là duy nhất trong ngày (nếu người dùng upload 1 ảnh trong ngày giống nhau nhiều lần thì chỉ ghi 1 lần duy nhất thôi)</t>
+  </si>
+  <si>
+    <t>Chức năng của file này là làm gì (ghi text để tìm kiếm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> , FOREIGN KEY (news_id) REFERENCES news(id) ON DELETE CASCADE ON UPDATE NO ACTION</t>
+  </si>
+  <si>
+    <t>User được tag vào bản tin này, sử dụng index để tìm kiếm theo user cho nhanh nhất</t>
+  </si>
+  <si>
+    <t>Thời gian gán tag của tin tức</t>
+  </si>
+  <si>
+    <t>Người gán tag user này vào bản tin</t>
+  </si>
+  <si>
+    <t>orginal_username</t>
+  </si>
+  <si>
+    <t>ghi những chuỗi tag # là từ khóa của bản tin thuộc nhóm tin gì, để có thể tìm kiếm cho nhanh (mãng ghi tag???)</t>
+  </si>
+  <si>
+    <t>#noibo #congty3</t>
+  </si>
+  <si>
+    <t>default 0</t>
+  </si>
+  <si>
+    <t>kiểu tin tức (ghi tin tự post = 0 không có hình, 1-có hình, 2 có video, tin share từ tin khác???</t>
+  </si>
+  <si>
+    <t>Chữ ký của tin tức này từ public key và thông tin user nhập lên</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>#dntk01</t>
+  </si>
+  <si>
+    <t>https://.....</t>
+  </si>
+  <si>
+    <t>default '{"likes":{"like":{},"love":{},"unlike":{},"sad":{},"angery":{}},"comments":{},"shares":{}, "reads":{}}'</t>
+  </si>
+  <si>
+    <t>default '{"likes":{"903500888":"love"},"comments":{},"shares":{}, "reads":{}}'</t>
+  </si>
+  <si>
+    <t>Chuỗi json kết quả likes, comments, shares, reads (ghi nhận mãng chứa username trong mỗi kết quả hành động, bấm vào tin đọc sẽ cộng user vào đọc tin này) default '{"likes":{"like":{},"love":{},"unlike":{},"sad":{},"angery":{}},"comments":{},"shares":{}, "reads":{}}'</t>
+  </si>
+  <si>
+    <t>default '{"likes":{},"comments":{},"shares":{}, "reads":{}}'</t>
+  </si>
+  <si>
+    <t>Chuỗi json kết quả likes, comments, shares, reads (ghi nhận mãng chứa username trong mỗi kết quả hành động, bấm vào tin đọc sẽ cộng user vào đọc tin này), comments = {"cuongdq":"abc"}</t>
+  </si>
+  <si>
+    <t>news_comments</t>
+  </si>
+  <si>
+    <t>Mã comment tự sinh ra để quản lý comment này</t>
+  </si>
+  <si>
+    <t>Mã comment cha liên kết với nó nếu như comment này trực thuộc</t>
+  </si>
+  <si>
+    <t>User thực hiện comment này</t>
+  </si>
+  <si>
+    <t>Thời gian thực hiện comment này</t>
+  </si>
+  <si>
+    <t>Trạng thái ẩn comment hay hiệu lực</t>
+  </si>
+  <si>
+    <t>nội dung comment</t>
+  </si>
+  <si>
+    <t>thứ tự của comment</t>
+  </si>
+  <si>
+    <t>các hành động cho comment này</t>
+  </si>
+  <si>
+    <t>default '{"likes":{},"comments":{}}'</t>
+  </si>
+  <si>
+    <t>default '{"like":"Thích","comment":"Trả lời"}'</t>
+  </si>
+  <si>
+    <t>kết quả đánh giá comment này, ghi các user đánh giá</t>
+  </si>
+  <si>
+    <t>Mã tin tức liên quan việc comment này được đánh index để tìm theo foreign key</t>
+  </si>
+  <si>
+    <t>news_details_comments</t>
+  </si>
+  <si>
+    <t>Mã chi tiết của thông tin này</t>
+  </si>
+  <si>
+    <t>news_details_id</t>
+  </si>
+  <si>
+    <t>default 1, FOREIGN KEY (news_details_id) REFERENCES news_details(id) ON DELETE CASCADE ON UPDATE NO ACTION</t>
+  </si>
+  <si>
+    <t>Tin này thật có ích đó</t>
   </si>
 </sst>
 </file>
@@ -408,7 +520,7 @@
       <name val="Courier New"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +563,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -476,7 +624,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="307">
+  <cellStyleXfs count="339">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -784,8 +932,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -839,8 +1019,47 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="307">
+  <cellStyles count="339">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -995,6 +1214,22 @@
     <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1146,6 +1381,22 @@
     <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1449,17 +1700,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="4" customWidth="1"/>
@@ -1483,7 +1734,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -1491,13 +1742,13 @@
     </row>
     <row r="2" spans="1:7" ht="16">
       <c r="A2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>5</v>
@@ -1510,13 +1761,13 @@
     </row>
     <row r="3" spans="1:7" ht="16">
       <c r="A3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>5</v>
@@ -1525,34 +1776,34 @@
       <c r="F3" s="10"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="43">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="29">
       <c r="A4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="16">
       <c r="A5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>6</v>
@@ -1563,13 +1814,13 @@
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="16">
       <c r="A6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="B6" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="C6" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>6</v>
@@ -1580,13 +1831,13 @@
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="42">
       <c r="A7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>6</v>
@@ -1595,104 +1846,108 @@
       <c r="F7" s="12"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="64">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="84">
       <c r="A8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="48">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="64" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>51</v>
+        <v>32</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="42">
       <c r="A10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>54</v>
+        <v>32</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
+      <c r="F10" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="17">
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="29">
       <c r="A11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>62</v>
+        <v>32</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>51</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="28">
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="16">
       <c r="A12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="16">
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="28">
       <c r="A13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>6</v>
@@ -1703,13 +1958,13 @@
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" ht="16">
       <c r="A14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>26</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>6</v>
@@ -1720,13 +1975,13 @@
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" ht="16">
       <c r="A15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>6</v>
@@ -1735,440 +1990,926 @@
       <c r="F15" s="10"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="16">
-      <c r="A16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="42">
+      <c r="A16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="42">
-      <c r="A17" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="17" t="s">
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="16">
+      <c r="A17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18" t="s">
-        <v>73</v>
-      </c>
+      <c r="C17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="16">
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="32">
       <c r="A18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
+      <c r="E18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="32">
-      <c r="A19" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="1:7" ht="28">
+      <c r="A20" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7" ht="48">
+      <c r="A22" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" ht="16">
+      <c r="A23" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="28">
+      <c r="A24" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" ht="16">
+      <c r="A25" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="56">
+      <c r="A26" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="48">
+      <c r="A27" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" ht="42">
+      <c r="A28" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" ht="43">
+      <c r="A29" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" ht="16">
+      <c r="A30" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="16">
+      <c r="A31" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" ht="16">
+      <c r="A32" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" ht="16">
+      <c r="A33" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" ht="16">
+      <c r="A34" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" ht="16">
+      <c r="A35" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" ht="48">
+      <c r="A36" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" ht="16">
+      <c r="A37" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="36"/>
+      <c r="G37" s="35"/>
+    </row>
+    <row r="38" spans="1:7" ht="28">
+      <c r="A38" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="38"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="35"/>
+    </row>
+    <row r="39" spans="1:7" ht="28">
+      <c r="A39" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="38"/>
+      <c r="F39" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="35"/>
+    </row>
+    <row r="40" spans="1:7" ht="16">
+      <c r="A40" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="38"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="35"/>
+    </row>
+    <row r="41" spans="1:7" ht="16">
+      <c r="A41" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" s="36"/>
+      <c r="G41" s="35"/>
+    </row>
+    <row r="42" spans="1:7" ht="48">
+      <c r="A42" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42" s="36"/>
+      <c r="G42" s="35"/>
+    </row>
+    <row r="43" spans="1:7" ht="16">
+      <c r="A43" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="38"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="35"/>
+    </row>
+    <row r="44" spans="1:7" ht="16">
+      <c r="A44" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="38"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="35"/>
+    </row>
+    <row r="45" spans="1:7" ht="16">
+      <c r="A45" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="38"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="35"/>
+    </row>
+    <row r="46" spans="1:7" ht="48">
+      <c r="A46" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="36"/>
+      <c r="G46" s="35"/>
+    </row>
+    <row r="47" spans="1:7" ht="16">
+      <c r="A47" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="20"/>
+      <c r="G47" s="35"/>
+    </row>
+    <row r="48" spans="1:7" ht="28">
+      <c r="A48" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="40"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="35"/>
+    </row>
+    <row r="49" spans="1:7" ht="16">
+      <c r="A49" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="40"/>
+      <c r="F49" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="35"/>
+    </row>
+    <row r="50" spans="1:7" ht="16">
+      <c r="A50" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="40"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="35"/>
+    </row>
+    <row r="51" spans="1:7" ht="16">
+      <c r="A51" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" s="20"/>
+      <c r="G51" s="35"/>
+    </row>
+    <row r="52" spans="1:7" ht="48">
+      <c r="A52" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="20"/>
+      <c r="G52" s="35"/>
+    </row>
+    <row r="53" spans="1:7" ht="16">
+      <c r="A53" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="40"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="35"/>
+    </row>
+    <row r="54" spans="1:7" ht="16">
+      <c r="A54" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="40"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="35"/>
+    </row>
+    <row r="55" spans="1:7" ht="16">
+      <c r="A55" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="40"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="35"/>
+    </row>
+    <row r="56" spans="1:7" ht="64">
+      <c r="A56" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="20"/>
+      <c r="G56" s="35"/>
+    </row>
+    <row r="57" spans="1:7" ht="16">
+      <c r="A57" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" s="42"/>
+      <c r="G57" s="41"/>
+    </row>
+    <row r="58" spans="1:7" ht="16">
+      <c r="A58" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="42"/>
+      <c r="G58" s="41"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="41"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="41"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="C60" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" ht="16">
-      <c r="A20" s="5" t="s">
+      <c r="E60" s="41"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="41"/>
+    </row>
+    <row r="61" spans="1:7" ht="32">
+      <c r="A61" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="B61" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="42">
-      <c r="A21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="16">
-      <c r="A22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="17">
-      <c r="A23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="E61" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="16">
-      <c r="A24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="16">
-      <c r="A25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" ht="16">
-      <c r="A26" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" ht="16">
-      <c r="A27" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="F61" s="42"/>
+      <c r="G61" s="41"/>
+    </row>
+    <row r="62" spans="1:7" ht="16">
+      <c r="A62" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" s="16"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" ht="16">
+      <c r="A63" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" s="16"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" ht="16">
-      <c r="A28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" ht="16">
-      <c r="A29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="E64" s="23"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="23"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" ht="32">
+      <c r="A66" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="C66" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" ht="48">
-      <c r="A30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" ht="16">
-      <c r="A31" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="1:7" ht="16">
-      <c r="A32" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="20" t="s">
+      <c r="E66" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="1:7" ht="32">
-      <c r="A35" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="19"/>
-    </row>
-    <row r="36" spans="1:7" ht="16">
-      <c r="A36" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="16">
-      <c r="A37" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="23"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="23"/>
-    </row>
-    <row r="40" spans="1:7" ht="32">
-      <c r="A40" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>88</v>
-      </c>
+      <c r="F66" s="16"/>
+      <c r="G66" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -2180,4 +2921,345 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="30" customFormat="1" ht="96">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="31">
+        <v>903500888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>702418821</v>
+      </c>
+      <c r="C2">
+        <v>903500888</v>
+      </c>
+      <c r="D2">
+        <v>123456789</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="64">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2">
+        <v>903500888</v>
+      </c>
+      <c r="I2">
+        <v>123456789</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>